--- a/reachable.xlsx
+++ b/reachable.xlsx
@@ -1,37 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+  <si>
+    <t>原據點</t>
+  </si>
+  <si>
+    <t>客戶ID</t>
+  </si>
+  <si>
+    <t>客戶名稱</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>南港</t>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>桃園</t>
+  </si>
+  <si>
+    <t>宜蘭</t>
+  </si>
+  <si>
+    <t>花蓮</t>
+  </si>
+  <si>
+    <t>新竹</t>
+  </si>
+  <si>
+    <t>台中</t>
+  </si>
+  <si>
+    <t>嘉義</t>
+  </si>
+  <si>
+    <t>台南</t>
+  </si>
+  <si>
+    <t>高雄</t>
+  </si>
+  <si>
+    <t>屏東</t>
+  </si>
+  <si>
+    <t>台東</t>
+  </si>
+  <si>
+    <t>彰化</t>
+  </si>
+  <si>
+    <t>53923989-遠傳機房</t>
+  </si>
+  <si>
+    <t>80656113台中</t>
+  </si>
+  <si>
+    <t>85CAFE001</t>
+  </si>
+  <si>
+    <t>85CAFE002</t>
+  </si>
+  <si>
+    <t>85CAFE1030001747</t>
+  </si>
+  <si>
+    <t>85CAFE222222</t>
+  </si>
+  <si>
+    <t>hihi</t>
+  </si>
+  <si>
+    <t>ntu100</t>
+  </si>
+  <si>
+    <t>1907504</t>
+  </si>
+  <si>
+    <t>77777</t>
+  </si>
+  <si>
+    <t>qqqggg</t>
+  </si>
+  <si>
+    <t>320c</t>
+  </si>
+  <si>
+    <t>杰福爾舶樂股份有限公司(PLAZA TOKYO)</t>
+  </si>
+  <si>
+    <t>春澄建設有限公司</t>
+  </si>
+  <si>
+    <t>崇奕系統工程股份有限公司</t>
+  </si>
+  <si>
+    <t>杰福爾舶樂股份有限公司 遠傳機房</t>
+  </si>
+  <si>
+    <t>崇奕  台積電 中科廠</t>
+  </si>
+  <si>
+    <t>85度C-IDC機房</t>
+  </si>
+  <si>
+    <t>85度C NEC SE</t>
+  </si>
+  <si>
+    <t>85度C  南科群創店</t>
+  </si>
+  <si>
+    <t>85度C 測試店</t>
+  </si>
+  <si>
+    <t>5566</t>
+  </si>
+  <si>
+    <t>taiwan no 1</t>
+  </si>
+  <si>
+    <t>孔令傑</t>
+  </si>
+  <si>
+    <t>鋼鐵韓粉</t>
+  </si>
+  <si>
+    <t>愛睏系</t>
+  </si>
+  <si>
+    <t>孔老師</t>
+  </si>
+  <si>
+    <t>台北市中山區中山北路二段129號6樓之2</t>
+  </si>
+  <si>
+    <t>台南市府前四街99號</t>
+  </si>
+  <si>
+    <t>新竹縣寶山鄉明湖五街6巷7號</t>
+  </si>
+  <si>
+    <t>台北市內湖區港墘路220號5F</t>
+  </si>
+  <si>
+    <t>中部科學園區科雅六路1號</t>
+  </si>
+  <si>
+    <t>台北市內湖區瑞光路498號4F</t>
+  </si>
+  <si>
+    <t>台北市中山區南京東路二段167號8樓</t>
+  </si>
+  <si>
+    <t>台南市新市市環西路一段3號</t>
+  </si>
+  <si>
+    <t>台中市南屯區工業23路35號</t>
+  </si>
+  <si>
+    <t>台北市長安西路 53 巷 5 號</t>
+  </si>
+  <si>
+    <t>台北市大安區羅斯福路四段1號</t>
+  </si>
+  <si>
+    <t>新北市板橋區小七</t>
+  </si>
+  <si>
+    <t>雲林縣斗六夜市</t>
+  </si>
+  <si>
+    <t>台北火車站</t>
+  </si>
+  <si>
+    <t>台灣大學</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +231,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,142 +547,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>原據點</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>客戶ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>客戶名稱</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>地址</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>台北市南港區園區街3-2號8樓H棟</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新北市淡水區中正東路二段27號5樓</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>桃園市桃園區龍安街</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>宜蘭市民族路366號2樓之</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>花蓮市國聯一路4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>新竹市北大路282號</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>台中市府會園道</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>嘉義市中興路353號8樓B室</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>台南市民生路二段307號2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>高雄市四維三路6號</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>屏東市仁德路58號8樓之2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>台東市連航路63號</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>台北市大安區羅斯福路四段10號</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>台北市長安東路100號</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>彰化縣鹿港老龍師肉包</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>台北市羅斯福路4段1號</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>53923989</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>杰福爾舶樂股份有限公司(PLAZA TOKYO)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>台北市中山區中山北路二段129號6樓之2</t>
-        </is>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -526,34 +659,19 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>台南</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>54570908</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>春澄建設有限公司</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>台南市府前四街99號</t>
-        </is>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -594,34 +712,19 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>台中</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>80656113</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>崇奕系統工程股份有限公司</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>新竹縣寶山鄉明湖五街6巷7號</t>
-        </is>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -639,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -662,36 +765,19 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>53923989-遠傳機房</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>杰福爾舶樂股份有限公司 遠傳機房</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>台北市內湖區港墘路220號5F</t>
-        </is>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -732,36 +818,19 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>台中</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>80656113台中</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>崇奕  台積電 中科廠</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>中部科學園區科雅六路1號</t>
-        </is>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -782,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -802,39 +871,22 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>85CAFE001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>85度C-IDC機房</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>台北市內湖區瑞光路498號4F</t>
-        </is>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -872,39 +924,22 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>85CAFE002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>85度C NEC SE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>台北市中山區南京東路二段167號8樓</t>
-        </is>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -942,36 +977,19 @@
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>台南</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>85CAFE1030001747</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>85度C  南科群創店</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>台南市新市市環西路一段3號</t>
-        </is>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1012,36 +1030,19 @@
       <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>台中</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>85CAFE222222</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>85度C 測試店</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>台中市南屯區工業23路35號</t>
-        </is>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1062,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -1080,40 +1081,24 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>hihi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5566</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>台北市長安西路 53 巷 5 號</t>
-        </is>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1148,38 +1133,22 @@
       <c r="Q11" t="b">
         <v>0</v>
       </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>hihi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5566</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>台北市長安西路 53 巷 5 號</t>
-        </is>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1214,35 +1183,19 @@
       <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="R12" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ntu100</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>taiwan no 1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>台北市大安區羅斯福路四段1號</t>
-        </is>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1278,34 +1231,18 @@
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1907504</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>孔令傑</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>新北市板橋區小七</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1314,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1346,32 +1283,16 @@
       <c r="Q14" t="b">
         <v>0</v>
       </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>77777</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鋼鐵韓粉</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>雲林縣斗六夜市</t>
-        </is>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1412,38 +1333,22 @@
       <c r="Q15" t="b">
         <v>0</v>
       </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>qqqggg</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>愛睏系</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>台北火車站</t>
-        </is>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1478,17 +1383,58 @@
       <c r="Q16" t="b">
         <v>0</v>
       </c>
-      <c r="R16" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" t="b">
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>